--- a/medicine/Enfance/Alice_et_la_Pierre_d'onyx/Alice_et_la_Pierre_d'onyx.xlsx
+++ b/medicine/Enfance/Alice_et_la_Pierre_d'onyx/Alice_et_la_Pierre_d'onyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_la_Pierre_d%27onyx</t>
+          <t>Alice_et_la_Pierre_d'onyx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et la Pierre d'onyx (titre original : The Moonstone Castle Mystery, littéralement : Mystère au château Pierre de lune) est le quarantième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Harriet Adams. 
+Alice et la Pierre d'onyx (titre original : The Moonstone Castle Mystery, littéralement : Mystère au château Pierre de lune) est le quarantième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Harriet Adams. 
 Aux États-Unis, le roman a été publié pour la première fois en 1963 par Grosset &amp; Dunlap, New York. En France, il a paru pour la première fois en 1970 chez Hachette Jeunesse dans la collection « Idéal-Bibliothèque » sous le no 365. Il n'a plus été réédité en France depuis 1985. 
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_la_Pierre_d%27onyx</t>
+          <t>Alice_et_la_Pierre_d'onyx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1970 à 1976 en langue française.
 Par la Poste, Alice Roy reçoit d'un expéditeur inconnu, une splendide pierre d'onyx montée en bague. Un mot est joint au paquet : « Cette pierre vous portera chance. », et il était signé : « Quelqu'un qui vous veut du bien ». Par ailleurs, l'avoué James Roy fait part à sa fille Alice de l'affaire qui l'occupe : il y a quinze ans, un couple d'ethnologues renommés, M. et Mme Frazer, était parti explorer l'Amazonie. 
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_et_la_Pierre_d%27onyx</t>
+          <t>Alice_et_la_Pierre_d'onyx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,17 +564,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, dix-huit ans, détective amateur blonde, orpheline de mère, fille de James Roy.
-James Roy, avocat [2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, dix-huit ans, détective amateur blonde, orpheline de mère, fille de James Roy.
+James Roy, avocat  de renom, père d'Alice Roy, veuf.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
 Daniel Evans, ami et chevalier servant de Bess, camarade d'université de Ned.
 Bob Eddleton, ami et chevalier servant de Marion, camarade d'université de Ned.
-Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Personnages spécifiques à ce roman
-Mme et M. Frazer, ethnologues et explorateurs.
+Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_la_Pierre_d'onyx</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_la_Pierre_d%27onyx</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mme et M. Frazer, ethnologues et explorateurs.
 Janie Horton (Joanie Horton en VO), petite-fille de M. et Mme Frazer.
 Mme Horton, grand-mère décédée de Janie Horton.
 Jodine Holt puis Armstrong, dite Jody, jeune fille orpheline de Deep Valley.
@@ -580,31 +633,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_et_la_Pierre_d%27onyx</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_et_la_Pierre_d'onyx</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_la_Pierre_d%27onyx</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : Toutes les éditions ont paru aux éditions Hachette.
 1970 : Alice et la Pierre d'onyx — coll. « Idéal-Bibliothèque » no 365, cartonné (français, version originale). Illustré par Albert Chazelle. Texte français de Anne Joba. 20 chapitres. 186 p. 
